--- a/testdata/test_data.xlsx
+++ b/testdata/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\PycharmProjects\Task18-BDD_Framework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832D088E-97B5-431F-9188-53BC1F618CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24B8417-550A-4CE9-A69B-4CF05A012923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>meenakshisivasankar@gmail.com</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>abcdd</t>
   </si>
 </sst>
 </file>
@@ -365,13 +371,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -383,15 +393,33 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{26AA8E6F-D7ED-4177-91BB-63481800893B}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{26AA8E6F-D7ED-4177-91BB-63481800893B}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{C398FF75-9533-4FBA-A856-80218450DAD2}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{97C45F35-1996-4F2D-9009-00AB042BCFD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
